--- a/Docs/task-history.xlsx
+++ b/Docs/task-history.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26925"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martacaninoromero/PycharmProjects/Practica-Ing.software/Docs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFA8B3B5-BA90-944B-AF21-4AF80EBC5C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCC71B76-016D-45A2-9EF1-E0D0732FEE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="24080" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tareas" sheetId="1" r:id="rId1"/>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Histórico de tareas</t>
   </si>
@@ -98,6 +93,15 @@
     <t>Consultas a BD</t>
   </si>
   <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Conexión a servidor</t>
+  </si>
+  <si>
+    <t>Registro de usuariosen BD</t>
+  </si>
+  <si>
     <t xml:space="preserve">Registro de usuarios </t>
   </si>
   <si>
@@ -116,10 +120,16 @@
     <t>Eventos y vinculación de ventanas</t>
   </si>
   <si>
+    <t>Interfaz con calendario</t>
+  </si>
+  <si>
     <t>Perfil del alumno</t>
   </si>
   <si>
-    <t>Interfaz con calendario</t>
+    <t>Interfaz perfil de alumno</t>
+  </si>
+  <si>
+    <t>Edición de perfil de alumno</t>
   </si>
   <si>
     <t>Interfaz II con calendario</t>
@@ -159,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +202,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -218,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -241,11 +266,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -255,22 +293,40 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -301,7 +357,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -597,424 +653,479 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G19"/>
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" customWidth="1"/>
-    <col min="6" max="7" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="6" max="7" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+    <row r="3" spans="1:7" s="1" customFormat="1">
+      <c r="A3" s="10">
         <v>0</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="9">
+      <c r="B3" s="10"/>
+      <c r="C3" s="8">
         <v>45197</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6">
+      <c r="F3" s="7"/>
+      <c r="G3" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="9">
+    <row r="4" spans="1:7" s="1" customFormat="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11">
         <v>45198</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6">
+      <c r="F4" s="10"/>
+      <c r="G4" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="8">
+        <v>45197</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11">
+        <v>45199</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="8">
+        <v>45199</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11">
+        <v>45171</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="8">
+        <v>45171</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16">
+        <v>45171</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="8">
+        <v>45199</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1">
+      <c r="A12" s="10">
+        <v>6</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="11">
+        <v>45199</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="8">
+        <v>45171</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11">
+        <v>45199</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="8">
+        <v>45198</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1">
+      <c r="A16" s="10">
+        <v>3</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="11">
+        <v>45171</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="10">
+        <v>3</v>
+      </c>
+      <c r="G16" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="1" customFormat="1">
+      <c r="A17" s="7">
+        <v>2</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="8">
+        <v>45198</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="7">
+        <v>3</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1">
+      <c r="A18" s="10">
+        <v>4</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="11">
+        <v>45198</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="10">
+        <v>3</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="8">
+        <v>45199</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="7">
+        <v>4</v>
+      </c>
+      <c r="G19" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1">
+      <c r="A20" s="10">
+        <v>5</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="11">
+        <v>45199</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="10">
+        <v>3</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1">
+      <c r="A21" s="7">
+        <v>17</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="9">
-        <v>45197</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1">
+      <c r="A22" s="10">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="9">
-        <v>45199</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="9">
-        <v>45199</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="9">
-        <v>45171</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="9">
-        <v>45199</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="9">
-        <v>45199</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="9">
-        <v>45171</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="9">
-        <v>45199</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="B22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="9">
-        <v>45171</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>2</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="9">
-        <v>45198</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="5">
-        <v>3</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>4</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="9">
-        <v>45198</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="5">
-        <v>3</v>
-      </c>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>18</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="9">
-        <v>45199</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="5">
-        <v>4</v>
-      </c>
-      <c r="G16" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>5</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="9">
-        <v>45199</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="5">
-        <v>3</v>
-      </c>
-      <c r="G17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="5">
-        <v>10</v>
-      </c>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>12</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5">
-        <v>3</v>
-      </c>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-    </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-    </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-    </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="1" customFormat="1">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1">
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
